--- a/biology/Botanique/Pommier_à_feuilles_de_prunier/Pommier_à_feuilles_de_prunier.xlsx
+++ b/biology/Botanique/Pommier_à_feuilles_de_prunier/Pommier_à_feuilles_de_prunier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pommier_%C3%A0_feuilles_de_prunier</t>
+          <t>Pommier_à_feuilles_de_prunier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Malus prunifolia est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un pommier connu sous le nom de pommier à feuilles de prunier, ou pommier à feuilles de prunus[2]. Il est originaire de Chine, et est implanté dans d'autres territoires comme arbre ornemental ou en porte-greffe. Il atteint 3 à 8 mètres de hauteur et porte des fleurs blanches, et des fruits jaunes ou rouges[1]. Il a été décrit botaniquement par Carl Ludwig Willdenow (Willd.) initialement comme Pyrus, puis associé au genre Malus en 1803[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Malus prunifolia est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un pommier connu sous le nom de pommier à feuilles de prunier, ou pommier à feuilles de prunus. Il est originaire de Chine, et est implanté dans d'autres territoires comme arbre ornemental ou en porte-greffe. Il atteint 3 à 8 mètres de hauteur et porte des fleurs blanches, et des fruits jaunes ou rouges. Il a été décrit botaniquement par Carl Ludwig Willdenow (Willd.) initialement comme Pyrus, puis associé au genre Malus en 1803.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pommier_%C3%A0_feuilles_de_prunier</t>
+          <t>Pommier_à_feuilles_de_prunier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Implantation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Malus prunifolia se trouve en Chine, notamment dans les provinces de Gansu, Guizhou, Hebei, Henan, Liaoning, Nei Mongol, Qinghai, Shaanxi, Shandong, et Shanxi. Il est implanté à des hauteurs très variables, qui vont de plaines au niveau de la mer à des pistes en montagne, à 1 300 m[1]. Il est aujourd'hui implanté dans d'autres territoires comme arbre ornemental ou en porte-greffe.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Malus prunifolia se trouve en Chine, notamment dans les provinces de Gansu, Guizhou, Hebei, Henan, Liaoning, Nei Mongol, Qinghai, Shaanxi, Shandong, et Shanxi. Il est implanté à des hauteurs très variables, qui vont de plaines au niveau de la mer à des pistes en montagne, à 1 300 m. Il est aujourd'hui implanté dans d'autres territoires comme arbre ornemental ou en porte-greffe.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pommier_%C3%A0_feuilles_de_prunier</t>
+          <t>Pommier_à_feuilles_de_prunier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Malus prunifolia a au moins quatre variétés, dont certaines sont cultivées pour leurs fruits[4],[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Malus prunifolia a au moins quatre variétés, dont certaines sont cultivées pour leurs fruits, :
 M. prunifolia var. obliquipedicellata  X.W. Li &amp; J.W. Sun
 M. prunifolia var. prunifolia
 M. prunifolia var. ringo  Asami (pommier chinois)
